--- a/results/EKA CHAIRANI.xlsx
+++ b/results/EKA CHAIRANI.xlsx
@@ -67,79 +67,79 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>FARMA MEDIKA AP</t>
+  </si>
+  <si>
+    <t>CALNIC 30 KAPLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>KIMIA FARMA APOTEK (KARTINI) AP</t>
+  </si>
+  <si>
+    <t>ESTIN TABLET</t>
+  </si>
+  <si>
+    <t>YAYASAN ABDI KARYA (RS NATAR MEDIKA)</t>
+  </si>
+  <si>
+    <t>BUSMIN</t>
+  </si>
+  <si>
+    <t>SAMI SARAS AP</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
+    <t>FARRAS AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t>GEMARI 1 AP</t>
+  </si>
+  <si>
+    <t>K24 ARIEF RAHMAN AP</t>
+  </si>
+  <si>
+    <t>K24 (PULAU LEGUNDI) AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML SUSPENSI</t>
+  </si>
+  <si>
+    <t>BELLEZA INST RSIA</t>
+  </si>
+  <si>
+    <t>INDRA JAYA AP</t>
+  </si>
+  <si>
+    <t>ENGGAL BAGAS AP</t>
+  </si>
+  <si>
     <t>ENGGAL AP</t>
   </si>
   <si>
     <t>D-VIT FLASH TABLET</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>GASTROLAN 30 MG KAPSUL</t>
   </si>
   <si>
-    <t>ESTIN TABLET</t>
-  </si>
-  <si>
     <t>D-VIT SYRUP</t>
   </si>
   <si>
-    <t>CALNIC 30 KAPLET</t>
-  </si>
-  <si>
-    <t>BELLEZA INST RSIA</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t>K24 (PULAU LEGUNDI) AP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML SUSPENSI</t>
-  </si>
-  <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
-    <t>YAYASAN ABDI KARYA (RS NATAR MEDIKA)</t>
-  </si>
-  <si>
-    <t>BUSMIN</t>
-  </si>
-  <si>
-    <t>FARRAS AP</t>
-  </si>
-  <si>
-    <t>K24 ARIEF RAHMAN AP</t>
-  </si>
-  <si>
-    <t>KIMIA FARMA APOTEK (KARTINI) AP</t>
-  </si>
-  <si>
-    <t>ENGGAL BAGAS AP</t>
-  </si>
-  <si>
-    <t>GEMARI 1 AP</t>
-  </si>
-  <si>
-    <t>SAMI SARAS AP</t>
-  </si>
-  <si>
-    <t>INDRA JAYA AP</t>
-  </si>
-  <si>
-    <t>FARMA MEDIKA AP</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>SALES PANEL / TENDER</t>
   </si>
   <si>
-    <t xml:space="preserve">APT POLYGON FARMA </t>
+    <t>APT POLYGON FARMA</t>
   </si>
   <si>
     <t>APT BIMA</t>
@@ -842,13 +842,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="G12" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="11">
-        <v>300000</v>
+        <v>112500</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -861,70 +861,70 @@
         <v>18</v>
       </c>
       <c r="F13" s="12">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="G13" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="12">
-        <v>300000</v>
+        <v>112500</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="11">
-        <v>280000</v>
+        <v>84000</v>
       </c>
       <c r="G14" s="11">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="H14" s="11">
-        <v>280000</v>
+        <v>-2100000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="12">
-        <v>84000</v>
+        <v>165000</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>84000</v>
+        <v>495000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F16" s="11">
-        <v>30000</v>
+        <v>138000</v>
       </c>
       <c r="G16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -934,16 +934,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F17" s="12">
-        <v>30000</v>
+        <v>138000</v>
       </c>
       <c r="G17" s="12">
         <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>60000</v>
+        <v>276000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -953,92 +953,92 @@
         <v>19</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11">
-        <v>112500</v>
+        <v>138000</v>
       </c>
       <c r="G18" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="11">
-        <v>225000</v>
+        <v>138000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="8"/>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F19" s="12">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="12">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F20" s="11">
-        <v>280000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11">
-        <v>280000</v>
+        <v>60000</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="8"/>
       <c r="D21" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="12">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="12">
-        <v>180000</v>
+        <v>276000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F22" s="11">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G22" s="11">
         <v>2</v>
       </c>
       <c r="H22" s="11">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -1048,54 +1048,54 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="12">
         <v>60000</v>
       </c>
       <c r="G23" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="11">
-        <v>55000</v>
+        <v>138000</v>
       </c>
       <c r="G24" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11">
-        <v>110000</v>
+        <v>138000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="8"/>
       <c r="D25" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="12">
         <v>60000</v>
       </c>
       <c r="G25" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
@@ -1105,149 +1105,149 @@
         <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="11">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="11">
-        <v>138000</v>
+        <v>120000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" s="12">
-        <v>165000</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="12">
         <v>3</v>
       </c>
       <c r="H27" s="12">
-        <v>495000</v>
+        <v>180000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="11">
         <v>60000</v>
       </c>
       <c r="G28" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="11">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="8"/>
       <c r="D29" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="12">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="12">
         <v>2</v>
       </c>
       <c r="H29" s="12">
-        <v>276000</v>
+        <v>120000</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11">
-        <v>84000</v>
+        <v>138000</v>
       </c>
       <c r="G30" s="11">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="H30" s="11">
-        <v>-2100000</v>
+        <v>138000</v>
       </c>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="8"/>
       <c r="D31" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F31" s="12">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G31" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="12">
-        <v>138000</v>
+        <v>300000</v>
       </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F32" s="11">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G32" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" s="11">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="8"/>
       <c r="D33" s="12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F33" s="12">
-        <v>138000</v>
+        <v>280000</v>
       </c>
       <c r="G33" s="12">
         <v>1</v>
       </c>
       <c r="H33" s="12">
-        <v>138000</v>
+        <v>280000</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -1257,16 +1257,16 @@
         <v>19</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F34" s="11">
-        <v>138000</v>
+        <v>84000</v>
       </c>
       <c r="G34" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="11">
-        <v>276000</v>
+        <v>84000</v>
       </c>
       <c r="I34" s="10"/>
     </row>
@@ -1276,32 +1276,32 @@
         <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F35" s="12">
-        <v>138000</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="12">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F36" s="11">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G36" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="11">
         <v>60000</v>
@@ -1314,35 +1314,35 @@
         <v>19</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F37" s="12">
-        <v>60000</v>
+        <v>112500</v>
       </c>
       <c r="G37" s="12">
         <v>2</v>
       </c>
       <c r="H37" s="12">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F38" s="11">
-        <v>112500</v>
+        <v>75000</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" s="11">
-        <v>112500</v>
+        <v>300000</v>
       </c>
       <c r="I38" s="10"/>
     </row>
@@ -1352,16 +1352,16 @@
         <v>19</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F39" s="12">
-        <v>112500</v>
+        <v>280000</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
       </c>
       <c r="H39" s="12">
-        <v>112500</v>
+        <v>280000</v>
       </c>
       <c r="I39" s="10"/>
     </row>
